--- a/Data/TaskClassification_exp.xlsx
+++ b/Data/TaskClassification_exp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI_Engineer\Project\Dental_Clinic\Code\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\radika\AI_Engineer\Project\Dental_Clinic\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB4E620E-C26C-4354-9F1E-E4995F7F8114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D587F7-9406-49D9-87DC-2F5C683B38FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="OralTherapist" sheetId="3" r:id="rId3"/>
     <sheet name="Constraints" sheetId="4" r:id="rId4"/>
     <sheet name="Worker" sheetId="5" r:id="rId5"/>
-    <sheet name="Room" sheetId="7" r:id="rId6"/>
+    <sheet name="Worker_v3" sheetId="8" r:id="rId6"/>
+    <sheet name="Room" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="151">
   <si>
     <t>Object-Subject</t>
   </si>
@@ -395,13 +396,115 @@
   </si>
   <si>
     <t>For Advance Treatments</t>
+  </si>
+  <si>
+    <t>Arlong</t>
+  </si>
+  <si>
+    <t>Marlo</t>
+  </si>
+  <si>
+    <t>Reno</t>
+  </si>
+  <si>
+    <t>Lorean</t>
+  </si>
+  <si>
+    <t>Jannik</t>
+  </si>
+  <si>
+    <t>Nashvile</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Meghan</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Ello</t>
+  </si>
+  <si>
+    <t>Myrion</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Darius</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +516,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -511,10 +620,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,31 +982,31 @@
       <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" customWidth="1"/>
+    <col min="19" max="19" width="19.88671875" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,7 +1065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1015,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1074,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1133,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1192,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1251,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1310,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1369,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1442,14 +1551,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="97.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="97.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1460,7 +1569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1471,7 +1580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.5">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1482,7 +1591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
@@ -1493,7 +1602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1504,7 +1613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1515,7 +1624,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1537,7 +1646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.5">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1548,7 +1657,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.5">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1559,7 +1668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -1570,25 +1679,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
     </row>
   </sheetData>
@@ -1604,14 +1713,14 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="84.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="84.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1622,7 +1731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1633,7 +1742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.5">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1644,7 +1753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
@@ -1655,7 +1764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1666,7 +1775,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1677,7 +1786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1688,7 +1797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1699,7 +1808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1710,7 +1819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
@@ -1721,7 +1830,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1732,7 +1841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.5">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
@@ -1752,18 +1861,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1780,7 +1889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1797,7 +1906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1814,7 +1923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1831,7 +1940,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1848,7 +1957,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1865,7 +1974,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1882,7 +1991,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -1899,7 +2008,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -1916,7 +2025,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1933,7 +2042,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -1950,7 +2059,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -1967,7 +2076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -1984,12 +2093,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="13">
-        <v>0.83333333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C14" t="s">
         <v>91</v>
@@ -2001,7 +2110,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -2027,20 +2136,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -2054,7 +2163,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -2068,7 +2177,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -2082,7 +2191,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2096,7 +2205,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2110,7 +2219,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -2124,7 +2233,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -2144,6 +2253,307 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B31C52B-6E74-4C7C-820F-6CD05EDE74A1}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>90000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2151,14 +2561,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -2175,7 +2585,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -2192,7 +2602,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2209,7 +2619,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>

--- a/Data/TaskClassification_exp.xlsx
+++ b/Data/TaskClassification_exp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\radika\AI_Engineer\Project\Dental_Clinic\Code\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\radika\AI_Engineer\Project\Dental_Clinic\Code\dental_clinic_optimization\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D587F7-9406-49D9-87DC-2F5C683B38FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16BBA31-072E-4F0B-8EE2-0E13797DA9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -502,13 +502,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -516,14 +516,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -620,10 +627,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,31 +989,31 @@
       <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" customWidth="1"/>
-    <col min="19" max="19" width="19.88671875" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1124,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1183,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1242,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1301,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1419,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1478,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1538,6 +1545,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1551,14 +1559,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="97.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="97.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1569,7 +1577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1580,7 +1588,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
@@ -1602,7 +1610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1613,7 +1621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1624,7 +1632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1635,7 +1643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1646,7 +1654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1657,7 +1665,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1668,7 +1676,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -1679,28 +1687,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1713,14 +1722,14 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="84.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1731,7 +1740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1742,7 +1751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +1762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
@@ -1764,7 +1773,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1775,7 +1784,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1786,7 +1795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1797,7 +1806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1808,7 +1817,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1819,7 +1828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1841,7 +1850,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
@@ -1853,6 +1862,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1862,17 +1872,17 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="47.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1889,12 +1899,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
@@ -1906,7 +1916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1923,7 +1933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1940,7 +1950,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1957,7 +1967,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1974,7 +1984,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1991,7 +2001,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -2008,7 +2018,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -2025,7 +2035,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -2042,7 +2052,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2059,7 +2069,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -2076,7 +2086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -2093,12 +2103,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="13">
-        <v>0.95833333333333337</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C14" t="s">
         <v>91</v>
@@ -2110,7 +2120,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -2128,6 +2138,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2140,16 +2151,16 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -2163,7 +2174,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -2177,7 +2188,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -2191,7 +2202,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2205,7 +2216,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2219,7 +2230,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -2233,7 +2244,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -2248,6 +2259,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2260,14 +2272,14 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -2281,7 +2293,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -2309,7 +2321,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2323,7 +2335,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2337,7 +2349,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -2379,7 +2391,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -2393,7 +2405,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -2407,7 +2419,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -2421,7 +2433,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -2435,7 +2447,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -2449,7 +2461,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -2463,7 +2475,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -2477,7 +2489,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -2491,7 +2503,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -2505,7 +2517,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -2519,7 +2531,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -2533,7 +2545,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -2561,14 +2573,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -2585,7 +2597,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -2602,7 +2614,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2619,7 +2631,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -2637,6 +2649,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/TaskClassification_exp.xlsx
+++ b/Data/TaskClassification_exp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\radika\AI_Engineer\Project\Dental_Clinic\Code\dental_clinic_optimization\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\radika\AI_Engineer\Project\Dental_Clinic\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16BBA31-072E-4F0B-8EE2-0E13797DA9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B89C7B9-122D-49F3-AC9C-63FF248D8223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -502,13 +502,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -516,21 +516,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="新細明體"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -627,10 +620,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,31 +982,31 @@
       <selection pane="topRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" customWidth="1"/>
+    <col min="19" max="19" width="19.88671875" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1131,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1190,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1249,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1308,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1367,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1426,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1485,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -1545,7 +1538,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1559,14 +1551,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="97.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="97.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1577,7 +1569,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1588,7 +1580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1599,7 +1591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
@@ -1610,7 +1602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1621,7 +1613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1632,7 +1624,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1643,7 +1635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1654,7 +1646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1665,7 +1657,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -1676,7 +1668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
@@ -1687,29 +1679,28 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1722,14 +1713,14 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="84.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="84.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -1740,7 +1731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1751,7 +1742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1762,7 +1753,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
@@ -1773,7 +1764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1784,7 +1775,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -1795,7 +1786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1806,7 +1797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1817,7 +1808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1828,7 +1819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
@@ -1839,7 +1830,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1850,7 +1841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
@@ -1862,7 +1853,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1872,17 +1862,17 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -1899,12 +1889,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
@@ -1916,7 +1906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1933,7 +1923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1950,7 +1940,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1967,7 +1957,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1984,7 +1974,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -2001,7 +1991,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -2018,7 +2008,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -2035,7 +2025,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -2052,7 +2042,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2069,7 +2059,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -2086,7 +2076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -2103,7 +2093,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -2120,7 +2110,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -2138,7 +2128,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2151,16 +2140,16 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -2174,7 +2163,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -2188,7 +2177,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -2202,7 +2191,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2216,7 +2205,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2230,7 +2219,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -2244,7 +2233,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -2259,7 +2248,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2272,14 +2260,14 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -2293,7 +2281,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -2307,7 +2295,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -2321,7 +2309,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2335,7 +2323,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2349,7 +2337,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -2363,7 +2351,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -2377,7 +2365,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -2391,7 +2379,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -2405,7 +2393,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -2419,7 +2407,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -2433,7 +2421,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -2447,7 +2435,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -2461,7 +2449,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -2475,7 +2463,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -2489,7 +2477,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -2503,7 +2491,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -2517,7 +2505,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -2531,7 +2519,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -2545,7 +2533,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -2573,14 +2561,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -2597,7 +2585,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -2614,7 +2602,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -2631,7 +2619,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -2649,7 +2637,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>